--- a/20150427-marijuana/data/maindata.xlsx
+++ b/20150427-marijuana/data/maindata.xlsx
@@ -4,16 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="1640" windowWidth="25040" windowHeight="14420" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="560" yWindow="1640" windowWidth="25040" windowHeight="14420" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="race" sheetId="1" r:id="rId1"/>
     <sheet name="pettys" sheetId="2" r:id="rId2"/>
-    <sheet name="mpls_police_arrests" sheetId="3" r:id="rId3"/>
-    <sheet name="mn_police_departments" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="source" sheetId="5" r:id="rId3"/>
+    <sheet name="layout" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12339" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12374" uniqueCount="132">
   <si>
     <t>Case_Count</t>
   </si>
@@ -346,23 +345,86 @@
     <t>Grand Total</t>
   </si>
   <si>
-    <t>test1</t>
+    <t>Source: Minnesota Department of Health, Minnesota Supreme Court, Star Tribune analysis</t>
   </si>
   <si>
-    <t>test2</t>
+    <t>tab</t>
   </si>
   <si>
-    <t>null</t>
+    <t>description</t>
   </si>
   <si>
-    <t>Source: Minnesota Department of Health, Minnesota Supreme Court, Star Tribune analysis</t>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Minnesota Supreme Court</t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
+    <t>pettys</t>
+  </si>
+  <si>
+    <t>Minnesota cannabis cases by race of suspect</t>
+  </si>
+  <si>
+    <t>Minnesota petty cannibis-related misdemeanors</t>
+  </si>
+  <si>
+    <t>Number of cases</t>
+  </si>
+  <si>
+    <t>Year of case filings</t>
+  </si>
+  <si>
+    <t>Case outcome (Filings, Convicted)</t>
+  </si>
+  <si>
+    <t>Court unit district code</t>
+  </si>
+  <si>
+    <t>Minnesota county name</t>
+  </si>
+  <si>
+    <t>Self-reported race of suspect</t>
+  </si>
+  <si>
+    <t>Type of cannabis conviction</t>
+  </si>
+  <si>
+    <t>Number of cases in 2007</t>
+  </si>
+  <si>
+    <t>Number of cases in 2008</t>
+  </si>
+  <si>
+    <t>Number of cases in 2009</t>
+  </si>
+  <si>
+    <t>Number of cases in 2010</t>
+  </si>
+  <si>
+    <t>Number of cases in 2011</t>
+  </si>
+  <si>
+    <t>Number of cases in 2012</t>
+  </si>
+  <si>
+    <t>Number of cases in 2013</t>
+  </si>
+  <si>
+    <t>Number of cases in 2014</t>
+  </si>
+  <si>
+    <t>Total number of cases for conviction type over the time period</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -386,7 +448,21 @@
       <name val="Arial"/>
     </font>
     <font>
+      <u/>
       <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -407,8 +483,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -427,9 +519,25 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="17">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -761,7 +869,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4104"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="A1:F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
@@ -82847,6 +82957,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -82859,7 +82970,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="A1:J1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
@@ -83057,6 +83170,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -83067,30 +83181,64 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="35.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="8" customFormat="1">
+      <c r="A6" s="8" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A2" s="8" t="s">
+      <c r="B6" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>109</v>
+      <c r="C6" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -83101,60 +83249,158 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A1" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A2" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A2:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
-        <v>2015</v>
+    <row r="2" spans="1:2" s="8" customFormat="1">
+      <c r="A2" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
